--- a/VerveStacks_BGR_grids/SysSettings.xlsx
+++ b/VerveStacks_BGR_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D92247-E42D-41D5-A5EA-B03994E0BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F5C2D-85B5-4026-8580-AE2B3DA27031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5184,7 +5184,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B63E88-A96B-90E8-6AFF-E97231A0A334}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7A7E1A-A0F3-64AA-CDCB-AE05543EB034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13053,7 +13053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A708A04-FC2B-4B19-9FA1-CCD8A311ACE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A646EDA7-2C79-48D6-9A3B-E80FA665BBF0}">
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR_grids/SysSettings.xlsx
+++ b/VerveStacks_BGR_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E28F95C-3DB2-43C1-8AE7-5E8903711B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA8D58-F0EF-4AC4-B350-B9BEFD030963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4550,7 +4550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF217136-77FB-4BF1-AF63-3845B724A072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFC3919-14BA-41D9-8D00-166C9E995CEB}">
   <dimension ref="B3:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
